--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -506,10 +518,10 @@
       <c r="I13">
         <f>((C13-C12)^2+(D13- D12)^2)^.5</f>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="J13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="n">
@@ -553,28 +565,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s" s="2">
+      <c r="C15" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -599,28 +611,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I17" t="s" s="2">
+      <c r="I17" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -853,10 +865,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -900,28 +912,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -946,28 +958,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1171,10 +1183,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1218,28 +1230,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1264,28 +1276,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1530,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1565,28 +1577,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1623,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1836,10 +1848,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1883,28 +1895,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1929,28 +1941,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2154,10 +2166,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2201,28 +2213,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2247,28 +2259,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2443,10 +2455,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2490,28 +2502,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2536,28 +2548,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2732,10 +2744,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2779,28 +2791,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2825,28 +2837,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3021,10 +3033,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3068,28 +3080,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3114,28 +3126,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3368,10 +3380,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3415,28 +3427,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3461,28 +3473,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3657,10 +3669,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3704,28 +3716,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3750,28 +3762,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3888,10 +3900,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3935,28 +3947,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3981,28 +3993,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4177,10 +4189,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4224,28 +4236,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4270,28 +4282,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4408,10 +4420,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="2" t="s">
+      <c r="J148" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4455,28 +4467,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="2">
+      <c r="A150" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="2">
+      <c r="C150" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4501,28 +4513,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="2">
+      <c r="C152" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="2">
+      <c r="D152" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="2">
+      <c r="I152" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4668,10 +4680,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4715,28 +4727,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4761,28 +4773,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4899,10 +4911,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="2" t="s">
+      <c r="J165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4946,28 +4958,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="2">
+      <c r="C167" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4992,28 +5004,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5101,10 +5113,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5148,28 +5160,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5194,28 +5206,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5332,10 +5344,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5379,28 +5391,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5425,28 +5437,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5534,10 +5546,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5581,28 +5593,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5627,28 +5639,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5794,10 +5806,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5841,28 +5853,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5887,28 +5899,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6025,10 +6037,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6072,28 +6084,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6118,28 +6130,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6198,10 +6210,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6245,28 +6257,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6291,28 +6303,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6371,10 +6383,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
